--- a/attendancesED.xlsx
+++ b/attendancesED.xlsx
@@ -158,11 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +509,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
@@ -5882,6 +5883,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5889,7 +5891,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB6FFF10-FE93-49F3-A452-2D666AB19B87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEDA7470-CB8A-4EF5-B843-2F6A248A6337}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.datacontract.org/2004/07/Longview.Office.Excel.Model"/>
     <ds:schemaRef ds:uri="http://schemas.datacontract.org/2004/07/Longview.Office.AddIn.Models"/>
